--- a/学习台账.xlsx
+++ b/学习台账.xlsx
@@ -32,7 +32,7 @@
     <t>学习《高性能 FastAPI 框架入门精讲》</t>
   </si>
   <si>
-    <t>完成1.1-2.6</t>
+    <t>完成1.1-2.6：Pydantic基础用法。</t>
   </si>
   <si>
     <t>1.学习FastAPI:官方文档阅读——完成“FastAPI”到“”部分。</t>
@@ -990,7 +990,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="2"/>

--- a/学习台账.xlsx
+++ b/学习台账.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>日期</t>
   </si>
@@ -35,10 +35,19 @@
     <t>完成1.1-2.6：Pydantic基础用法。</t>
   </si>
   <si>
+    <t>github: https://github.com/liaogx/fastapi-tutorial</t>
+  </si>
+  <si>
+    <t>视频地址：</t>
+  </si>
+  <si>
     <t>1.学习FastAPI:官方文档阅读——完成“FastAPI”到“”部分。</t>
   </si>
   <si>
     <t xml:space="preserve">1.Pydantic: https://pydantic-docs.helpmanual.io/ 2.starlette: </t>
+  </si>
+  <si>
+    <t>2.6-</t>
   </si>
 </sst>
 </file>
@@ -987,13 +996,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="8.8" style="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
@@ -1019,7 +1028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="30.75" spans="1:3">
+    <row r="3" ht="30.75" spans="1:5">
       <c r="A3" s="2">
         <v>44638</v>
       </c>
@@ -1028,20 +1037,32 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>44639</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1">
